--- a/XLSX transformados/Jornada 5 - Local vs Comerciantes Unidos_posicion_jugadores.xlsx
+++ b/XLSX transformados/Jornada 5 - Local vs Comerciantes Unidos_posicion_jugadores.xlsx
@@ -525,7 +525,7 @@
         <v>30</v>
       </c>
       <c r="F2" t="n">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="G2" t="n">
         <v>159931</v>
@@ -619,7 +619,7 @@
         <v>26</v>
       </c>
       <c r="F4" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G4" t="n">
         <v>981374</v>
@@ -644,17 +644,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Franco Zanelatto</t>
+          <t>Jhamir D´Arrigo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>franco-zanelatto</t>
+          <t>jhamir-d-arrigo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>F. Zanelatto</t>
+          <t>J. D´Arrigo</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -663,24 +663,24 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>330</v>
+        <v>98</v>
       </c>
       <c r="G5" t="n">
-        <v>973650</v>
+        <v>1017760</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>78.22499999999999</v>
+        <v>49.542857142857</v>
       </c>
       <c r="K5" t="n">
-        <v>57.775</v>
+        <v>82.814285714286</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -691,17 +691,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jhamir D´Arrigo</t>
+          <t>Franco Zanelatto</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jhamir-d-arrigo</t>
+          <t>franco-zanelatto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>J. D´Arrigo</t>
+          <t>F. Zanelatto</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -710,24 +710,24 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>96</v>
+        <v>329</v>
       </c>
       <c r="G6" t="n">
-        <v>1017760</v>
+        <v>973650</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>49.542857142857</v>
+        <v>78.22499999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>82.814285714286</v>
+        <v>57.775</v>
       </c>
       <c r="L6" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G7" t="n">
         <v>1482444</v>
@@ -811,7 +811,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G8" t="n">
         <v>973682</v>
@@ -858,7 +858,7 @@
         <v>27</v>
       </c>
       <c r="F9" t="n">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G9" t="n">
         <v>1415942</v>
@@ -909,7 +909,7 @@
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G10" t="n">
         <v>789372</v>
@@ -956,7 +956,7 @@
         <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="G11" t="n">
         <v>31175</v>
@@ -1003,7 +1003,7 @@
         <v>32</v>
       </c>
       <c r="F12" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G12" t="n">
         <v>973547</v>
@@ -1097,7 +1097,7 @@
         <v>29</v>
       </c>
       <c r="F14" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G14" t="n">
         <v>1006509</v>
@@ -1191,7 +1191,7 @@
         <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G16" t="n">
         <v>962187</v>
